--- a/Java/Test OptRecursive/OptRecursive_Testbench/Excel_Files/outputOpt/lowerlimit.xlsx
+++ b/Java/Test OptRecursive/OptRecursive_Testbench/Excel_Files/outputOpt/lowerlimit.xlsx
@@ -72,40 +72,40 @@
         <v>-1.0</v>
       </c>
       <c r="D1" t="n">
-        <v>-0.974082841</v>
+        <v>-0.974082840593171</v>
       </c>
       <c r="E1" t="n">
-        <v>-0.932309039</v>
+        <v>-0.932309038992748</v>
       </c>
       <c r="F1" t="n">
-        <v>-0.847452389</v>
+        <v>-0.847452388537183</v>
       </c>
       <c r="G1" t="n">
-        <v>-0.724680039</v>
+        <v>-0.724680039139838</v>
       </c>
       <c r="H1" t="n">
-        <v>-0.584206489</v>
+        <v>-0.584206488705884</v>
       </c>
       <c r="I1" t="n">
-        <v>-0.448368344</v>
+        <v>-0.448368344074227</v>
       </c>
       <c r="J1" t="n">
-        <v>-0.333152936</v>
+        <v>-0.33315293623822</v>
       </c>
       <c r="K1" t="n">
-        <v>-0.24418079</v>
+        <v>-0.244180789845194</v>
       </c>
       <c r="L1" t="n">
-        <v>-0.177141947</v>
+        <v>-0.177141946974804</v>
       </c>
       <c r="M1" t="n">
-        <v>-0.122686145</v>
+        <v>-0.122686145196158</v>
       </c>
       <c r="N1" t="n">
-        <v>-0.07576685</v>
+        <v>-0.0757668499037829</v>
       </c>
       <c r="O1" t="n">
-        <v>-0.049439141</v>
+        <v>-0.0494391409323673</v>
       </c>
       <c r="P1" t="n">
         <v>-1.0</v>
